--- a/input_data/admin_data/CHL/gpinter_CHL_2006.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2006.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>year</t>
   </si>
@@ -198,6 +198,39 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -381,10 +414,76 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -626,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J72"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -634,31 +733,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2">
@@ -666,31 +765,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>829291.60503519</v>
+        <v>1590792.94887497</v>
       </c>
       <c r="E2">
-        <v>0.67000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F2">
-        <v>16335.779720188601</v>
+        <v>28252.591309815401</v>
       </c>
       <c r="G2">
-        <v>0.99996257289342505</v>
+        <v>0.99993485575054597</v>
       </c>
       <c r="H2">
-        <v>2512910.80924214</v>
+        <v>3615202.99514155</v>
       </c>
       <c r="I2">
-        <v>38735.7417554399</v>
+        <v>48263.175389253498</v>
       </c>
       <c r="J2">
-        <v>153.82864193109501</v>
+        <v>127.960049947191</v>
       </c>
     </row>
     <row r="3">
@@ -698,29 +797,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.68000000000000005</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F3">
-        <v>61808.779127850597</v>
+        <v>68718.241748116707</v>
       </c>
       <c r="G3">
-        <v>0.999495478550251</v>
+        <v>0.99963146507092704</v>
       </c>
       <c r="H3">
-        <v>2590228.7801011</v>
+        <v>3698155.0839729998</v>
       </c>
       <c r="I3">
-        <v>86280.123423796002</v>
+        <v>90085.8355028925</v>
       </c>
       <c r="J3">
-        <v>41.907133851378099</v>
+        <v>53.816206437999497</v>
       </c>
     </row>
     <row r="4">
@@ -728,29 +827,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.68999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F4">
-        <v>111477.430304978</v>
+        <v>111921.67868911399</v>
       </c>
       <c r="G4">
-        <v>0.99845507101567599</v>
+        <v>0.99906516990619998</v>
       </c>
       <c r="H4">
-        <v>2671001.3174132798</v>
+        <v>3784061.4946508599</v>
       </c>
       <c r="I4">
-        <v>138182.52414229201</v>
+        <v>134718.60833632201</v>
       </c>
       <c r="J4">
-        <v>23.9600187240233</v>
+        <v>33.809906525454302</v>
       </c>
     </row>
     <row r="5">
@@ -758,29 +857,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.69999999999999996</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F5">
-        <v>165670.20628930899</v>
+        <v>158008.58117652001</v>
       </c>
       <c r="G5">
-        <v>0.99678879918435304</v>
+        <v>0.99821830540110201</v>
       </c>
       <c r="H5">
-        <v>2755428.6105223098</v>
+        <v>3873069.8577316999</v>
       </c>
       <c r="I5">
-        <v>194782.79100560301</v>
+        <v>182310.259956208</v>
       </c>
       <c r="J5">
-        <v>16.6320104998875</v>
+        <v>24.511769100723001</v>
       </c>
     </row>
     <row r="6">
@@ -788,29 +887,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.70999999999999996</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F6">
-        <v>224738.482388759</v>
+        <v>207130.80807049901</v>
       </c>
       <c r="G6">
-        <v>0.99444001390999404</v>
+        <v>0.997072271531105</v>
       </c>
       <c r="H6">
-        <v>2843726.7422297802</v>
+        <v>3965338.84767609</v>
       </c>
       <c r="I6">
-        <v>256444.110294477</v>
+        <v>233015.745997338</v>
       </c>
       <c r="J6">
-        <v>12.6534926818213</v>
+        <v>19.144128701156099</v>
       </c>
     </row>
     <row r="7">
@@ -818,29 +917,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.71999999999999997</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F7">
-        <v>289057.38220699597</v>
+        <v>259446.40968421</v>
       </c>
       <c r="G7">
-        <v>0.99134768657016104</v>
+        <v>0.99560749419372696</v>
       </c>
       <c r="H7">
-        <v>2936129.6933703301</v>
+        <v>4061039.44002683</v>
       </c>
       <c r="I7">
-        <v>323553.75785769097</v>
+        <v>286996.19811455102</v>
       </c>
       <c r="J7">
-        <v>10.1576014802062</v>
+        <v>15.6527101106151</v>
       </c>
     </row>
     <row r="8">
@@ -848,29 +947,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.72999999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="F8">
-        <v>359026.41947484697</v>
+        <v>315119.58743232698</v>
       </c>
       <c r="G8">
-        <v>0.98744611858257703</v>
+        <v>0.99380338638499199</v>
       </c>
       <c r="H8">
-        <v>3032891.7650559801</v>
+        <v>4160356.36744557</v>
       </c>
       <c r="I8">
-        <v>396523.60290920798</v>
+        <v>344418.85335625598</v>
       </c>
       <c r="J8">
-        <v>8.4475448060124094</v>
+        <v>13.2024683116184</v>
       </c>
     </row>
     <row r="9">
@@ -878,29 +977,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.73999999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F9">
-        <v>435069.84706200898</v>
+        <v>374320.591057477</v>
       </c>
       <c r="G9">
-        <v>0.98266464484641902</v>
+        <v>0.991638309819875</v>
       </c>
       <c r="H9">
-        <v>3134290.5405231598</v>
+        <v>4263489.8137723096</v>
       </c>
       <c r="I9">
-        <v>475790.26412370102</v>
+        <v>405456.91530938097</v>
       </c>
       <c r="J9">
-        <v>7.2041088613443804</v>
+        <v>11.389941979220801</v>
       </c>
     </row>
     <row r="10">
@@ -908,29 +1007,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.75</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F10">
-        <v>517636.59853990498</v>
+        <v>437225.54163684498</v>
       </c>
       <c r="G10">
-        <v>0.97692733530132203</v>
+        <v>0.98908953742560402</v>
       </c>
       <c r="H10">
-        <v>3240630.5515791401</v>
+        <v>4370657.3942851704</v>
       </c>
       <c r="I10">
-        <v>561814.787588996</v>
+        <v>470289.33457326499</v>
       </c>
       <c r="J10">
-        <v>6.26043552700866</v>
+        <v>9.9963450852452507</v>
       </c>
     </row>
     <row r="11">
@@ -938,29 +1037,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.76000000000000001</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F11">
-        <v>607199.67478640098</v>
+        <v>504016.16720003402</v>
       </c>
       <c r="G11">
-        <v>0.97015270036979995</v>
+        <v>0.98613321721494496</v>
       </c>
       <c r="H11">
-        <v>3352247.8750787298</v>
+        <v>4482096.4817055101</v>
       </c>
       <c r="I11">
-        <v>655081.67922446504</v>
+        <v>539100.49470992095</v>
       </c>
       <c r="J11">
-        <v>5.52083279072568</v>
+        <v>8.8927633147264693</v>
       </c>
     </row>
     <row r="12">
@@ -968,29 +1067,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.77000000000000002</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F12">
-        <v>704254.78677425801</v>
+        <v>574879.43651392998</v>
       </c>
       <c r="G12">
-        <v>0.96225340806722504</v>
+        <v>0.98274433813365902</v>
       </c>
       <c r="H12">
-        <v>3469515.97055066</v>
+        <v>4598066.9519112604</v>
       </c>
       <c r="I12">
-        <v>756097.077927595</v>
+        <v>612079.78869950899</v>
       </c>
       <c r="J12">
-        <v>4.9265067638976197</v>
+        <v>7.99831522900514</v>
       </c>
     </row>
     <row r="13">
@@ -998,29 +1097,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.78000000000000003</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F13">
-        <v>809318.01410400204</v>
+        <v>650007.07558103697</v>
       </c>
       <c r="G13">
-        <v>0.95313602314089896</v>
+        <v>0.97889669857043204</v>
       </c>
       <c r="H13">
-        <v>3592853.19294261</v>
+        <v>4718854.4417055603</v>
       </c>
       <c r="I13">
-        <v>865385.79831057205</v>
+        <v>689421.070172698</v>
       </c>
       <c r="J13">
-        <v>4.4393589792021002</v>
+        <v>7.2596970386628499</v>
       </c>
     </row>
     <row r="14">
@@ -1028,29 +1127,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.79000000000000004</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F14">
-        <v>922922.17529391299</v>
+        <v>729594.95093198598</v>
       </c>
       <c r="G14">
-        <v>0.942700781869238</v>
+        <v>0.97456287831644905</v>
       </c>
       <c r="H14">
-        <v>3722732.5926870001</v>
+        <v>4844774.2345659602</v>
       </c>
       <c r="I14">
-        <v>983486.90178794903</v>
+        <v>771321.96360671602</v>
       </c>
       <c r="J14">
-        <v>4.0336365214125003</v>
+        <v>6.6403615161772098</v>
       </c>
     </row>
     <row r="15">
@@ -1058,29 +1157,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.80000000000000004</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F15">
-        <v>1045611.52911369</v>
+        <v>813842.30431377701</v>
       </c>
       <c r="G15">
-        <v>0.93084142026691896</v>
+        <v>0.96971421486120701</v>
       </c>
       <c r="H15">
-        <v>3859694.8772319499</v>
+        <v>4976175.9207259398</v>
       </c>
       <c r="I15">
-        <v>1110947.3715261801</v>
+        <v>857983.01907886297</v>
       </c>
       <c r="J15">
-        <v>3.6913277730436098</v>
+        <v>6.11442277496473</v>
       </c>
     </row>
     <row r="16">
@@ -1088,29 +1187,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.81000000000000005</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F16">
-        <v>1177934.33676743</v>
+        <v>902950.82558337599</v>
       </c>
       <c r="G16">
-        <v>0.91744507856056501</v>
+        <v>0.96432078500167895</v>
       </c>
       <c r="H16">
-        <v>4004365.7985848798</v>
+        <v>5113449.0174474996</v>
       </c>
       <c r="I16">
-        <v>1248313.3725044299</v>
+        <v>949606.70052579395</v>
       </c>
       <c r="J16">
-        <v>3.3994813408478501</v>
+        <v>5.6630426293079896</v>
       </c>
     </row>
     <row r="17">
@@ -1118,29 +1217,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.81999999999999995</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F17">
-        <v>1320432.71696267</v>
+        <v>997123.55562295695</v>
       </c>
       <c r="G17">
-        <v>0.90239231105483997</v>
+        <v>0.95835139281146697</v>
       </c>
       <c r="H17">
-        <v>4157479.8222560198</v>
+        <v>5257029.7869965304</v>
       </c>
       <c r="I17">
-        <v>1396118.4810925301</v>
+        <v>1046396.20368825</v>
       </c>
       <c r="J17">
-        <v>3.1485737734666901</v>
+        <v>5.2721949625512297</v>
       </c>
     </row>
     <row r="18">
@@ -1148,29 +1247,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.82999999999999996</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F18">
-        <v>1473629.1335184199</v>
+        <v>1096563.6206482199</v>
       </c>
       <c r="G18">
-        <v>0.88555723793200003</v>
+        <v>0.95177356504055399</v>
       </c>
       <c r="H18">
-        <v>4319912.8423244599</v>
+        <v>5407409.5578289703</v>
       </c>
       <c r="I18">
-        <v>1554868.1917068199</v>
+        <v>1148554.11274776</v>
       </c>
       <c r="J18">
-        <v>2.9314789888893502</v>
+        <v>4.9312319467906702</v>
       </c>
     </row>
     <row r="19">
@@ -1178,29 +1277,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.83999999999999997</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F19">
-        <v>1638008.80214213</v>
+        <v>1201472.8161668701</v>
       </c>
       <c r="G19">
-        <v>0.86680788387769403</v>
+        <v>0.94455355495966997</v>
       </c>
       <c r="H19">
-        <v>4492728.1329880599</v>
+        <v>5565144.9446838303</v>
       </c>
       <c r="I19">
-        <v>1725020.00451823</v>
+        <v>1256280.92703109</v>
       </c>
       <c r="J19">
-        <v>2.7427985289899701</v>
+        <v>4.6319357956334102</v>
       </c>
     </row>
     <row r="20">
@@ -1208,29 +1307,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.84999999999999998</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F20">
-        <v>1813997.36784082</v>
+        <v>1312050.0874903901</v>
       </c>
       <c r="G20">
-        <v>0.84600675681883497</v>
+        <v>0.93665635546604897</v>
       </c>
       <c r="H20">
-        <v>4677242.0082193799</v>
+        <v>5730870.4838243201</v>
       </c>
       <c r="I20">
-        <v>1906958.58921105</v>
+        <v>1369773.5264804701</v>
       </c>
       <c r="J20">
-        <v>2.57841719681582</v>
+        <v>4.3678747773920499</v>
       </c>
     </row>
     <row r="21">
@@ -1238,29 +1337,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.85999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F21">
-        <v>2001933.56424043</v>
+        <v>1428490.00122874</v>
       </c>
       <c r="G21">
-        <v>0.82301172614889195</v>
+        <v>0.92804572183551104</v>
       </c>
       <c r="H21">
-        <v>4875119.3952914104</v>
+        <v>5905314.36211807</v>
       </c>
       <c r="I21">
-        <v>2100966.1788363899</v>
+        <v>1489223.70610117</v>
       </c>
       <c r="J21">
-        <v>2.4352053846207999</v>
+        <v>4.1339556854010402</v>
       </c>
     </row>
     <row r="22">
@@ -1268,29 +1367,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.87</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F22">
-        <v>2202037.6212266502</v>
+        <v>1550981.38015529</v>
       </c>
       <c r="G22">
-        <v>0.79767725795845101</v>
+        <v>0.91868420368725501</v>
       </c>
       <c r="H22">
-        <v>5088515.7965571797</v>
+        <v>6089318.13945211</v>
       </c>
       <c r="I22">
-        <v>2307190.0989222201</v>
+        <v>1614817.0102795099</v>
       </c>
       <c r="J22">
-        <v>2.3108214625881902</v>
+        <v>3.9261065396171499</v>
       </c>
     </row>
     <row r="23">
@@ -1298,29 +1397,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.88</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F23">
-        <v>2414378.8597944598</v>
+        <v>1679706.40116449</v>
       </c>
       <c r="G23">
-        <v>0.76985604181549605</v>
+        <v>0.90853318427632801</v>
       </c>
       <c r="H23">
-        <v>5320292.9380267598</v>
+        <v>6283861.6668074401</v>
       </c>
       <c r="I23">
-        <v>2525613.6420072699</v>
+        <v>1746732.2622517</v>
       </c>
       <c r="J23">
-        <v>2.2035866146043399</v>
+        <v>3.7410476393082899</v>
       </c>
     </row>
     <row r="24">
@@ -1328,29 +1427,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.89000000000000001</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F24">
-        <v>2638852.3946861499</v>
+        <v>1814840.66425583</v>
       </c>
       <c r="G24">
-        <v>0.73940096875467398</v>
+        <v>0.89755292274394605</v>
       </c>
       <c r="H24">
-        <v>5574354.6922103502</v>
+        <v>6490094.8215599703</v>
       </c>
       <c r="I24">
-        <v>2756046.91658162</v>
+        <v>1885142.45357028</v>
       </c>
       <c r="J24">
-        <v>2.1124162546701801</v>
+        <v>3.5761237608268002</v>
       </c>
     </row>
     <row r="25">
@@ -1358,29 +1457,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.90000000000000002</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F25">
-        <v>2875190.59955623</v>
+        <v>1956555.08269709</v>
       </c>
       <c r="G25">
-        <v>0.70616721961447104</v>
+        <v>0.88570259077646096</v>
       </c>
       <c r="H25">
-        <v>5856185.4697732199</v>
+        <v>6709378.2676547198</v>
       </c>
       <c r="I25">
-        <v>2998179.9515045802</v>
+        <v>2030218.1033522701</v>
       </c>
       <c r="J25">
-        <v>2.03679904583616</v>
+        <v>3.4291793402544601</v>
       </c>
     </row>
     <row r="26">
@@ -1388,29 +1487,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.91000000000000003</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F26">
-        <v>3123074.2665032502</v>
+        <v>2105021.0118839899</v>
       </c>
       <c r="G26">
-        <v>0.67001371301557799</v>
+        <v>0.872940288147523</v>
       </c>
       <c r="H26">
-        <v>6173741.6384697398</v>
+        <v>6943336.2758698398</v>
       </c>
       <c r="I26">
-        <v>3251806.1124203098</v>
+        <v>2182134.9393662899</v>
       </c>
       <c r="J26">
-        <v>1.9768155066585</v>
+        <v>3.2984641182539001</v>
       </c>
     </row>
     <row r="27">
@@ -1418,29 +1517,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.92000000000000004</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F27">
-        <v>3382511.39691643</v>
+        <v>2260420.9861420202</v>
       </c>
       <c r="G27">
-        <v>0.63080185927587595</v>
+        <v>0.85922300997559298</v>
       </c>
       <c r="H27">
-        <v>6538983.5792259201</v>
+        <v>7193925.8198963497</v>
       </c>
       <c r="I27">
-        <v>3517503.2206625398</v>
+        <v>2341089.0076648798</v>
       </c>
       <c r="J27">
-        <v>1.9331741454550599</v>
+        <v>3.1825601797188199</v>
       </c>
     </row>
     <row r="28">
@@ -1448,29 +1547,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.93000000000000005</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F28">
-        <v>3654941.1982068098</v>
+        <v>2422969.0526900101</v>
       </c>
       <c r="G28">
-        <v>0.58838610106362099</v>
+        <v>0.84450651899968998</v>
       </c>
       <c r="H28">
-        <v>6970623.6304492597</v>
+        <v>7463527.8650203198</v>
       </c>
       <c r="I28">
-        <v>3798591.0452158302</v>
+        <v>2507324.4730649302</v>
       </c>
       <c r="J28">
-        <v>1.9071780508723899</v>
+        <v>3.0803232326612799</v>
       </c>
     </row>
     <row r="29">
@@ -1478,29 +1577,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.93999999999999995</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F29">
-        <v>3946413.7983959299</v>
+        <v>2592947.4978345502</v>
       </c>
       <c r="G29">
-        <v>0.54258084966408904</v>
+        <v>0.82874504309650499</v>
       </c>
       <c r="H29">
-        <v>7499295.7279881602</v>
+        <v>7755069.2410176899</v>
       </c>
       <c r="I29">
-        <v>4106938.0140174599</v>
+        <v>2681183.1467769602</v>
       </c>
       <c r="J29">
-        <v>1.90028114412035</v>
+        <v>2.9908315719829202</v>
       </c>
     </row>
     <row r="30">
@@ -1508,29 +1607,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.94999999999999996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F30">
-        <v>4277297.1169020198</v>
+        <v>2770771.7196257599</v>
       </c>
       <c r="G30">
-        <v>0.49305740110773699</v>
+        <v>0.81189066145825906</v>
       </c>
       <c r="H30">
-        <v>8177767.2707823096</v>
+        <v>8072187.1219077297</v>
       </c>
       <c r="I30">
-        <v>4481857.9726244099</v>
+        <v>2863191.53148642</v>
       </c>
       <c r="J30">
-        <v>1.9119006810322601</v>
+        <v>2.9133353226941501</v>
       </c>
     </row>
     <row r="31">
@@ -1538,29 +1637,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.95999999999999996</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F31">
-        <v>4715525.9437103197</v>
+        <v>2957103.9715503901</v>
       </c>
       <c r="G31">
-        <v>0.43901298602609401</v>
+        <v>0.79389214359010196</v>
       </c>
       <c r="H31">
-        <v>9101744.5953217708</v>
+        <v>8419453.4946024902</v>
       </c>
       <c r="I31">
-        <v>5061540.00267951</v>
+        <v>3054213.5655255499</v>
       </c>
       <c r="J31">
-        <v>1.93016531007785</v>
+        <v>2.8471956263980198</v>
       </c>
     </row>
     <row r="32">
@@ -1568,29 +1667,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.96999999999999997</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F32">
-        <v>5508647.0101181604</v>
+        <v>3153053.3595220698</v>
       </c>
       <c r="G32">
-        <v>0.37797848414584501</v>
+        <v>0.774692828131195</v>
       </c>
       <c r="H32">
-        <v>10448479.459535901</v>
+        <v>8802684.9181079809</v>
       </c>
       <c r="I32">
-        <v>6233682.3365447596</v>
+        <v>3255720.6308392002</v>
       </c>
       <c r="J32">
-        <v>1.8967415120889599</v>
+        <v>2.7917970025861698</v>
       </c>
     </row>
     <row r="33">
@@ -1598,29 +1697,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.97999999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="F33">
-        <v>7109548.7842822503</v>
+        <v>3360531.3366592498</v>
       </c>
       <c r="G33">
-        <v>0.30280972205183798</v>
+        <v>0.75422680435895195</v>
       </c>
       <c r="H33">
-        <v>12555878.0210314</v>
+        <v>9229374.4786671195</v>
       </c>
       <c r="I33">
-        <v>8230729.9748687996</v>
+        <v>3470275.9346441701</v>
       </c>
       <c r="J33">
-        <v>1.7660583536313701</v>
+        <v>2.7464033374681001</v>
       </c>
     </row>
     <row r="34">
@@ -1628,29 +1727,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.98999999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F34">
-        <v>9438020.2061864492</v>
+        <v>3582894.94590108</v>
       </c>
       <c r="G34">
-        <v>0.203559591881769</v>
+        <v>0.73241204878627797</v>
       </c>
       <c r="H34">
-        <v>16881026.067194</v>
+        <v>9709299.3573356997</v>
       </c>
       <c r="I34">
-        <v>9580343.7232914194</v>
+        <v>3702422.2968345</v>
       </c>
       <c r="J34">
-        <v>1.78861940305328</v>
+        <v>2.7099034451019501</v>
       </c>
     </row>
     <row r="35">
@@ -1658,29 +1757,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.99099999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F35">
-        <v>9729961.1728141792</v>
+        <v>3826139.3780006599</v>
       </c>
       <c r="G35">
-        <v>0.19200714921247999</v>
+        <v>0.70913798097341196</v>
       </c>
       <c r="H35">
-        <v>17692212.994294301</v>
+        <v>10255379.090108501</v>
       </c>
       <c r="I35">
-        <v>9901674.6122886296</v>
+        <v>3960355.4259844502</v>
       </c>
       <c r="J35">
-        <v>1.8183230826991299</v>
+        <v>2.6803464476684802</v>
       </c>
     </row>
     <row r="36">
@@ -1688,29 +1787,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.99199999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F36">
-        <v>10089577.327033199</v>
+        <v>4101178.1019071201</v>
       </c>
       <c r="G36">
-        <v>0.180067230187412</v>
+        <v>0.68424250083700999</v>
       </c>
       <c r="H36">
-        <v>18666030.292045001</v>
+        <v>10884881.4565209</v>
       </c>
       <c r="I36">
-        <v>10326496.312444</v>
+        <v>4259188.5591848502</v>
       </c>
       <c r="J36">
-        <v>1.8500309464929501</v>
+        <v>2.6540865054017702</v>
       </c>
     </row>
     <row r="37">
@@ -1718,29 +1817,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99299999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F37">
-        <v>10599435.468830099</v>
+        <v>4428368.7678555902</v>
       </c>
       <c r="G37">
-        <v>0.16761504057190801</v>
+        <v>0.65746850386778199</v>
       </c>
       <c r="H37">
-        <v>19857392.2891309</v>
+        <v>11621069.556225</v>
       </c>
       <c r="I37">
-        <v>10982535.065277301</v>
+        <v>4627591.1567714904</v>
       </c>
       <c r="J37">
-        <v>1.8734386701561301</v>
+        <v>2.62423257082368</v>
       </c>
     </row>
     <row r="38">
@@ -1748,29 +1847,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99399999999999999</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F38">
-        <v>11447586.585087501</v>
+        <v>4846903.8460341301</v>
       </c>
       <c r="G38">
-        <v>0.15437176764041399</v>
+        <v>0.62837866436324896</v>
       </c>
       <c r="H38">
-        <v>21336535.1597731</v>
+        <v>12495254.356156601</v>
       </c>
       <c r="I38">
-        <v>12142070.251069199</v>
+        <v>5121881.0876772096</v>
       </c>
       <c r="J38">
-        <v>1.86384571116219</v>
+        <v>2.5779868454334198</v>
       </c>
     </row>
     <row r="39">
@@ -1778,29 +1877,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.995</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F39">
-        <v>12956945.128331499</v>
+        <v>5434370.8576977896</v>
       </c>
       <c r="G39">
-        <v>0.139730270997561</v>
+        <v>0.59618163274263902</v>
       </c>
       <c r="H39">
-        <v>23175428.141513899</v>
+        <v>13548593.394510901</v>
       </c>
       <c r="I39">
-        <v>13942954.815203501</v>
+        <v>5832798.5944234002</v>
       </c>
       <c r="J39">
-        <v>1.7886490922029701</v>
+        <v>2.49313006956808</v>
       </c>
     </row>
     <row r="40">
@@ -1808,29 +1907,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.996</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F40">
-        <v>14965036.552200099</v>
+        <v>6275886.6165098697</v>
       </c>
       <c r="G40">
-        <v>0.12291718048688099</v>
+        <v>0.55951565054458796</v>
       </c>
       <c r="H40">
-        <v>25483546.473091502</v>
+        <v>14834559.1945254</v>
       </c>
       <c r="I40">
-        <v>15926619.1966864</v>
+        <v>6807911.43593203</v>
       </c>
       <c r="J40">
-        <v>1.7028723173646401</v>
+        <v>2.3637391975024502</v>
       </c>
     </row>
     <row r="41">
@@ -1838,29 +1937,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.997</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F41">
-        <v>16798992.782614298</v>
+        <v>7383184.1733961804</v>
       </c>
       <c r="G41">
-        <v>0.103712091348169</v>
+        <v>0.51671994013647604</v>
       </c>
       <c r="H41">
-        <v>28669188.898559898</v>
+        <v>16439888.746244101</v>
       </c>
       <c r="I41">
-        <v>17716232.8785614</v>
+        <v>8040677.0673356596</v>
       </c>
       <c r="J41">
-        <v>1.7066016557986901</v>
+        <v>2.2266664842903401</v>
       </c>
     </row>
     <row r="42">
@@ -1868,29 +1967,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.998</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F42">
-        <v>19235075.4935834</v>
+        <v>8738200.1505635008</v>
       </c>
       <c r="G42">
-        <v>0.082348999317580607</v>
+        <v>0.466174851455878</v>
       </c>
       <c r="H42">
-        <v>34145666.908559099</v>
+        <v>18539691.665971201</v>
       </c>
       <c r="I42">
-        <v>23446903.879326399</v>
+        <v>9537873.5490530804</v>
       </c>
       <c r="J42">
-        <v>1.7751771715140801</v>
+        <v>2.1216831093958901</v>
       </c>
     </row>
     <row r="43">
@@ -1898,29 +1997,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.999</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F43">
-        <v>27065122.305260502</v>
+        <v>10426234.604118099</v>
       </c>
       <c r="G43">
-        <v>0.054075586519278497</v>
+        <v>0.40621812637862398</v>
       </c>
       <c r="H43">
-        <v>44844429.937791698</v>
+        <v>21540297.704943899</v>
       </c>
       <c r="I43">
-        <v>27865470.6859859</v>
+        <v>11833772.4997038</v>
       </c>
       <c r="J43">
-        <v>1.6569084533224401</v>
+        <v>2.06597093992456</v>
       </c>
     </row>
     <row r="44">
@@ -1928,29 +2027,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.99909999999999999</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F44">
-        <v>28665819.066710498</v>
+        <v>13795945.272516901</v>
       </c>
       <c r="G44">
-        <v>0.050715433044096501</v>
+        <v>0.33182898285071999</v>
       </c>
       <c r="H44">
-        <v>46730980.965769999</v>
+        <v>26393560.307564002</v>
       </c>
       <c r="I44">
-        <v>29466167.447436102</v>
+        <v>17133481.184652101</v>
       </c>
       <c r="J44">
-        <v>1.6301986996087099</v>
+        <v>1.9131389539608299</v>
       </c>
     </row>
     <row r="45">
@@ -1958,29 +2057,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.99919999999999998</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F45">
-        <v>30266515.828160599</v>
+        <v>21372653.686671399</v>
       </c>
       <c r="G45">
-        <v>0.047162259797373297</v>
+        <v>0.22412495262623899</v>
       </c>
       <c r="H45">
-        <v>48889082.655561499</v>
+        <v>35653639.430475898</v>
       </c>
       <c r="I45">
-        <v>31150742.964985199</v>
+        <v>22056064.937921599</v>
       </c>
       <c r="J45">
-        <v>1.6152861113294701</v>
+        <v>1.6681896386460699</v>
       </c>
     </row>
     <row r="46">
@@ -1988,29 +2087,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99929999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F46">
-        <v>32104245.812894698</v>
+        <v>22800186.939633999</v>
       </c>
       <c r="G46">
-        <v>0.043405952272270502</v>
+        <v>0.21026012819794401</v>
       </c>
       <c r="H46">
-        <v>51423131.1827861</v>
+        <v>37164481.040759698</v>
       </c>
       <c r="I46">
-        <v>33072052.414129</v>
+        <v>23666808.090442799</v>
       </c>
       <c r="J46">
-        <v>1.60175484210042</v>
+        <v>1.63000773367152</v>
       </c>
     </row>
     <row r="47">
@@ -2018,29 +2117,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99939999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F47">
-        <v>34039859.015361898</v>
+        <v>24586806.543836098</v>
       </c>
       <c r="G47">
-        <v>0.039417963944241803</v>
+        <v>0.195382762726102</v>
       </c>
       <c r="H47">
-        <v>54481644.3108951</v>
+        <v>38851690.159549303</v>
       </c>
       <c r="I47">
-        <v>35045661.977832697</v>
+        <v>25553416.875803702</v>
       </c>
       <c r="J47">
-        <v>1.60052496945736</v>
+        <v>1.5801844818797499</v>
       </c>
     </row>
     <row r="48">
@@ -2048,29 +2147,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99950000000000006</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F48">
-        <v>36098769.3481194</v>
+        <v>26488804.8250423</v>
       </c>
       <c r="G48">
-        <v>0.035191988212057497</v>
+        <v>0.17931944229595101</v>
       </c>
       <c r="H48">
-        <v>58368840.777506799</v>
+        <v>40751443.485798702</v>
       </c>
       <c r="I48">
-        <v>37166599.884819001</v>
+        <v>27165007.661326502</v>
       </c>
       <c r="J48">
-        <v>1.6169205164482301</v>
+        <v>1.53844024881306</v>
       </c>
     </row>
     <row r="49">
@@ -2078,29 +2177,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99960000000000004</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F49">
-        <v>38234430.421519801</v>
+        <v>27675256.406907398</v>
       </c>
       <c r="G49">
-        <v>0.030710259510217101</v>
+        <v>0.16224304798546699</v>
       </c>
       <c r="H49">
-        <v>63669401.000677198</v>
+        <v>43015849.456543997</v>
       </c>
       <c r="I49">
-        <v>43206438.548303701</v>
+        <v>28277686.008479498</v>
       </c>
       <c r="J49">
-        <v>1.6652373344848299</v>
+        <v>1.5543071697000701</v>
       </c>
     </row>
     <row r="50">
@@ -2108,29 +2207,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99970000000000003</v>
+        <v>0.995</v>
       </c>
       <c r="F50">
-        <v>46892423.582550898</v>
+        <v>29178984.9794969</v>
       </c>
       <c r="G50">
-        <v>0.025500217796782298</v>
+        <v>0.144467204794511</v>
       </c>
       <c r="H50">
-        <v>70490388.484809399</v>
+        <v>45963482.1461569</v>
       </c>
       <c r="I50">
-        <v>53499961.759860598</v>
+        <v>31015219.285135701</v>
       </c>
       <c r="J50">
-        <v>1.5032361967966099</v>
+        <v>1.5752255322950399</v>
       </c>
     </row>
     <row r="51">
@@ -2138,29 +2237,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99980000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="F51">
-        <v>64022810.542026699</v>
+        <v>33266120.874327101</v>
       </c>
       <c r="G51">
-        <v>0.019048933178076301</v>
+        <v>0.124970500772111</v>
       </c>
       <c r="H51">
-        <v>78985601.847283602</v>
+        <v>49700547.861412197</v>
       </c>
       <c r="I51">
-        <v>71532496.314564496</v>
+        <v>34705998.346573398</v>
       </c>
       <c r="J51">
-        <v>1.23371031634787</v>
+        <v>1.4940289566424401</v>
       </c>
     </row>
     <row r="52">
@@ -2168,29 +2267,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99990000000000001</v>
+        <v>0.997</v>
       </c>
       <c r="F52">
-        <v>79021113.975412801</v>
+        <v>35194662.089318797</v>
       </c>
       <c r="G52">
-        <v>0.0104231981675885</v>
+        <v>0.103153709107855</v>
       </c>
       <c r="H52">
-        <v>86438707.380003005</v>
+        <v>54698731.033025198</v>
       </c>
       <c r="I52">
-        <v>79767140.687357798</v>
+        <v>36700995.364996299</v>
       </c>
       <c r="J52">
-        <v>1.09386849958732</v>
+        <v>1.55417690598103</v>
       </c>
     </row>
     <row r="53">
@@ -2198,29 +2297,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99990999999999997</v>
+        <v>0.998</v>
       </c>
       <c r="F53">
-        <v>80512843.849959999</v>
+        <v>42647981.668761402</v>
       </c>
       <c r="G53">
-        <v>0.00946132733466706</v>
+        <v>0.080082827764716105</v>
       </c>
       <c r="H53">
-        <v>87179992.568070605</v>
+        <v>63697598.867039599</v>
       </c>
       <c r="I53">
-        <v>81257863.961914897</v>
+        <v>46105178.795705102</v>
       </c>
       <c r="J53">
-        <v>1.0828085110312999</v>
+        <v>1.4935665505056399</v>
       </c>
     </row>
     <row r="54">
@@ -2228,29 +2327,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99992000000000003</v>
+        <v>0.999</v>
       </c>
       <c r="F54">
-        <v>82002522.907505602</v>
+        <v>52729379.947756499</v>
       </c>
       <c r="G54">
-        <v>0.0084814806381832801</v>
+        <v>0.0511003138377394</v>
       </c>
       <c r="H54">
-        <v>87920258.643835902</v>
+        <v>81290018.938374102</v>
       </c>
       <c r="I54">
-        <v>82746414.290002406</v>
+        <v>56521338.203975201</v>
       </c>
       <c r="J54">
-        <v>1.0721652886583199</v>
+        <v>1.5416456445897</v>
       </c>
     </row>
     <row r="55">
@@ -2258,29 +2357,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99992999999999999</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F55">
-        <v>83489896.903979793</v>
+        <v>58600066.236768901</v>
       </c>
       <c r="G55">
-        <v>0.0074836842805675301</v>
+        <v>0.047547284623979003</v>
       </c>
       <c r="H55">
-        <v>88659379.265817001</v>
+        <v>84042094.575529307</v>
       </c>
       <c r="I55">
-        <v>84232503.334369794</v>
+        <v>59713680.864829503</v>
       </c>
       <c r="J55">
-        <v>1.0619174601183501</v>
+        <v>1.4341638153780201</v>
       </c>
     </row>
     <row r="56">
@@ -2288,29 +2387,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99994000000000005</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F56">
-        <v>84974638.805414706</v>
+        <v>60883271.727939703</v>
       </c>
       <c r="G56">
-        <v>0.0064679679411936402</v>
+        <v>0.043793579221459399</v>
       </c>
       <c r="H56">
-        <v>89397191.921054497</v>
+        <v>87083146.289366499</v>
       </c>
       <c r="I56">
-        <v>85715753.260712296</v>
+        <v>62181582.641787603</v>
       </c>
       <c r="J56">
-        <v>1.0520455653335199</v>
+        <v>1.4303296097243701</v>
       </c>
     </row>
     <row r="57">
@@ -2318,29 +2417,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99995000000000001</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F57">
-        <v>86456312.018203199</v>
+        <v>63554123.422351897</v>
       </c>
       <c r="G57">
-        <v>0.0054343658554998299</v>
+        <v>0.039884737238864598</v>
       </c>
       <c r="H57">
-        <v>90133479.6531277</v>
+        <v>90640512.524734199</v>
       </c>
       <c r="I57">
-        <v>87195646.822598398</v>
+        <v>65100785.031128302</v>
       </c>
       <c r="J57">
-        <v>1.04253208989704</v>
+        <v>1.42619404758962</v>
       </c>
     </row>
     <row r="58">
@@ -2348,29 +2447,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99995999999999996</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F58">
-        <v>87934303.576055706</v>
+        <v>66749972.070758</v>
       </c>
       <c r="G58">
-        <v>0.0043829184961779698</v>
+        <v>0.035792389138053597</v>
       </c>
       <c r="H58">
-        <v>90867937.860755503</v>
+        <v>94897133.773667797</v>
       </c>
       <c r="I58">
-        <v>88671431.143670306</v>
+        <v>68646113.830432996</v>
       </c>
       <c r="J58">
-        <v>1.0333616593911199</v>
+        <v>1.4216805015749301</v>
       </c>
     </row>
     <row r="59">
@@ -2378,29 +2477,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99997000000000003</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="F59">
-        <v>89407688.242868602</v>
+        <v>70691797.368269205</v>
       </c>
       <c r="G59">
-        <v>0.0033136754144335399</v>
+        <v>0.031477175528452701</v>
       </c>
       <c r="H59">
-        <v>91600106.766446799</v>
+        <v>100147337.76231401</v>
       </c>
       <c r="I59">
-        <v>90141903.526209593</v>
+        <v>73111332.197289199</v>
       </c>
       <c r="J59">
-        <v>1.0245215883182499</v>
+        <v>1.4166755053715201</v>
       </c>
     </row>
     <row r="60">
@@ -2408,29 +2507,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99997999999999998</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="F60">
-        <v>90874900.438424304</v>
+        <v>75766419.750099704</v>
       </c>
       <c r="G60">
-        <v>0.0022267006641829802</v>
+        <v>0.0268812705586081</v>
       </c>
       <c r="H60">
-        <v>92329208.386569202</v>
+        <v>106906339.153568</v>
       </c>
       <c r="I60">
-        <v>91604804.069651797</v>
+        <v>79044342.343959406</v>
       </c>
       <c r="J60">
-        <v>1.0160034062334999</v>
+        <v>1.41099895581944</v>
       </c>
     </row>
     <row r="61">
@@ -2438,29 +2537,359 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D61"/>
       <c r="E61">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F61">
+        <v>82739299.540479898</v>
+      </c>
+      <c r="G61">
+        <v>0.021912406295038201</v>
+      </c>
+      <c r="H61">
+        <v>116193671.423447</v>
+      </c>
+      <c r="I61">
+        <v>87646535.6917018</v>
+      </c>
+      <c r="J61">
+        <v>1.4043347244751601</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62"/>
+      <c r="E62">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F62">
+        <v>93455818.559763804</v>
+      </c>
+      <c r="G62">
+        <v>0.016402793258742301</v>
+      </c>
+      <c r="H62">
+        <v>130467239.28932101</v>
+      </c>
+      <c r="I62">
+        <v>102463878.83123399</v>
+      </c>
+      <c r="J62">
+        <v>1.3960312081145401</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63"/>
+      <c r="E63">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F63">
+        <v>114480593.008095</v>
+      </c>
+      <c r="G63">
+        <v>0.0099617363692403402</v>
+      </c>
+      <c r="H63">
+        <v>158470599.74740699</v>
+      </c>
+      <c r="I63">
+        <v>116204866.749888</v>
+      </c>
+      <c r="J63">
+        <v>1.38425732766952</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F64">
+        <v>118006469.46095701</v>
+      </c>
+      <c r="G64">
+        <v>0.0092312524503146195</v>
+      </c>
+      <c r="H64">
+        <v>163166792.302663</v>
+      </c>
+      <c r="I64">
+        <v>119983167.051838</v>
+      </c>
+      <c r="J64">
+        <v>1.38269361881594</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F65">
+        <v>122059224.04961701</v>
+      </c>
+      <c r="G65">
+        <v>0.00847701748129406</v>
+      </c>
+      <c r="H65">
+        <v>168564745.458987</v>
+      </c>
+      <c r="I65">
+        <v>124363762.79305901</v>
+      </c>
+      <c r="J65">
+        <v>1.38100784083689</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F66">
+        <v>126800061.658029</v>
+      </c>
+      <c r="G66">
+        <v>0.0076952453287217502</v>
+      </c>
+      <c r="H66">
+        <v>174879171.55415899</v>
+      </c>
+      <c r="I66">
+        <v>129545429.93798999</v>
+      </c>
+      <c r="J66">
+        <v>1.3791726066016901</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F67">
+        <v>132472783.769365</v>
+      </c>
+      <c r="G67">
+        <v>0.0068809003190270198</v>
+      </c>
+      <c r="H67">
+        <v>182434795.156813</v>
+      </c>
+      <c r="I67">
+        <v>135838489.242246</v>
+      </c>
+      <c r="J67">
+        <v>1.3771492525923801</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F68">
+        <v>139469635.618285</v>
+      </c>
+      <c r="G68">
+        <v>0.0060269960485862502</v>
+      </c>
+      <c r="H68">
+        <v>191754056.33978799</v>
+      </c>
+      <c r="I68">
+        <v>143764378.65331399</v>
+      </c>
+      <c r="J68">
+        <v>1.37488031347985</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F69">
+        <v>148477234.46263501</v>
+      </c>
+      <c r="G69">
+        <v>0.0051232682645630098</v>
+      </c>
+      <c r="H69">
+        <v>203751475.76133999</v>
+      </c>
+      <c r="I69">
+        <v>154295640.15799999</v>
+      </c>
+      <c r="J69">
+        <v>1.37227418397677</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F70">
+        <v>160854294.116633</v>
+      </c>
+      <c r="G70">
+        <v>0.0041533391467201697</v>
+      </c>
+      <c r="H70">
+        <v>220236754.29566699</v>
+      </c>
+      <c r="I70">
+        <v>169564777.64803901</v>
+      </c>
+      <c r="J70">
+        <v>1.3691692565942799</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F71">
+        <v>179876419.71952</v>
+      </c>
+      <c r="G71">
+        <v>0.0030874255860077501</v>
+      </c>
+      <c r="H71">
+        <v>245572742.61962</v>
+      </c>
+      <c r="I71">
+        <v>195865982.52549601</v>
+      </c>
+      <c r="J71">
+        <v>1.3652303231437399</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F61">
-        <v>92332659.986542597</v>
-      </c>
-      <c r="G61">
-        <v>0.00112208555035522</v>
-      </c>
-      <c r="H61">
-        <v>93053612.703478202</v>
-      </c>
-      <c r="I61">
-        <v>93053612.703476295</v>
-      </c>
-      <c r="J61">
-        <v>1.00780820911085</v>
+      <c r="F72">
+        <v>217195991.457663</v>
+      </c>
+      <c r="G72">
+        <v>0.0018561780961120599</v>
+      </c>
+      <c r="H72">
+        <v>295279502.71318901</v>
+      </c>
+      <c r="I72">
+        <v>295279502.71318799</v>
+      </c>
+      <c r="J72">
+        <v>1.3595071471231399</v>
       </c>
     </row>
   </sheetData>
